--- a/CodingInterView/RandomTable/MapleProb.xlsx
+++ b/CodingInterView/RandomTable/MapleProb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice\CodingInterView\RandomTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Practice\CodingInterView\RandomTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43804E92-80FB-4BAF-9495-21AC25FB3688}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA23CEE-940C-4F20-A952-FBB53372E3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="11985" activeTab="3" xr2:uid="{8EAEFC65-BFE8-4997-8B83-36D8FD5D1615}"/>
+    <workbookView xWindow="32265" yWindow="2070" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{8EAEFC65-BFE8-4997-8B83-36D8FD5D1615}"/>
   </bookViews>
   <sheets>
     <sheet name="강환불 등급" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -486,7 +496,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -522,7 +532,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -903,7 +913,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1025,6 +1035,18 @@
       <c r="K3">
         <v>4</v>
       </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1059,6 +1081,18 @@
       </c>
       <c r="K4">
         <v>8</v>
+      </c>
+      <c r="L4">
+        <v>18</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>22</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1345,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A025E275-69F8-4812-BAA8-10E788179974}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -1791,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76141AD-5325-4EF7-BDA5-447E3D2F8185}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1872,372 +1906,25 @@
       </c>
       <c r="K2">
         <f>'방어구 추옵'!L3</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L2">
         <f>'방어구 추옵'!M3</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M2">
         <f>'방어구 추옵'!N3</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N2">
         <f>'방어구 추옵'!O3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>'방어구 추옵'!B4</f>
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <f>'방어구 추옵'!C4</f>
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <f>'방어구 추옵'!D4</f>
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <f>'방어구 추옵'!E4</f>
         <v>6</v>
-      </c>
-      <c r="E3">
-        <f>'방어구 추옵'!F4</f>
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <f>'방어구 추옵'!G4</f>
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <f>'방어구 추옵'!H4</f>
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <f>'방어구 추옵'!I4</f>
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <f>'방어구 추옵'!J4</f>
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <f>'방어구 추옵'!K4</f>
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <f>'방어구 추옵'!L4</f>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f>'방어구 추옵'!M4</f>
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f>'방어구 추옵'!N4</f>
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f>'방어구 추옵'!O4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f>'방어구 추옵'!B5</f>
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <f>'방어구 추옵'!C5</f>
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <f>'방어구 추옵'!D5</f>
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <f>'방어구 추옵'!E5</f>
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <f>'방어구 추옵'!F5</f>
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <f>'방어구 추옵'!G5</f>
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <f>'방어구 추옵'!H5</f>
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <f>'방어구 추옵'!I5</f>
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <f>'방어구 추옵'!J5</f>
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <f>'방어구 추옵'!K5</f>
-        <v>12</v>
-      </c>
-      <c r="K4">
-        <f>'방어구 추옵'!L5</f>
-        <v>27</v>
-      </c>
-      <c r="L4">
-        <f>'방어구 추옵'!M5</f>
-        <v>15</v>
-      </c>
-      <c r="M4">
-        <f>'방어구 추옵'!N5</f>
-        <v>33</v>
-      </c>
-      <c r="N4">
-        <f>'방어구 추옵'!O5</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>'방어구 추옵'!B6</f>
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <f>'방어구 추옵'!C6</f>
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <f>'방어구 추옵'!D6</f>
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <f>'방어구 추옵'!E6</f>
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <f>'방어구 추옵'!F6</f>
-        <v>24</v>
-      </c>
-      <c r="F5">
-        <f>'방어구 추옵'!G6</f>
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <f>'방어구 추옵'!H6</f>
-        <v>28</v>
-      </c>
-      <c r="H5">
-        <f>'방어구 추옵'!I6</f>
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <f>'방어구 추옵'!J6</f>
-        <v>32</v>
-      </c>
-      <c r="J5">
-        <f>'방어구 추옵'!K6</f>
-        <v>16</v>
-      </c>
-      <c r="K5">
-        <f>'방어구 추옵'!L6</f>
-        <v>36</v>
-      </c>
-      <c r="L5">
-        <f>'방어구 추옵'!M6</f>
-        <v>20</v>
-      </c>
-      <c r="M5">
-        <f>'방어구 추옵'!N6</f>
-        <v>44</v>
-      </c>
-      <c r="N5">
-        <f>'방어구 추옵'!O6</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f>'방어구 추옵'!B7</f>
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <f>'방어구 추옵'!C7</f>
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <f>'방어구 추옵'!D7</f>
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <f>'방어구 추옵'!E7</f>
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <f>'방어구 추옵'!F7</f>
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <f>'방어구 추옵'!G7</f>
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <f>'방어구 추옵'!H7</f>
-        <v>35</v>
-      </c>
-      <c r="H6">
-        <f>'방어구 추옵'!I7</f>
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <f>'방어구 추옵'!J7</f>
-        <v>40</v>
-      </c>
-      <c r="J6">
-        <f>'방어구 추옵'!K7</f>
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <f>'방어구 추옵'!L7</f>
-        <v>45</v>
-      </c>
-      <c r="L6">
-        <f>'방어구 추옵'!M7</f>
-        <v>25</v>
-      </c>
-      <c r="M6">
-        <f>'방어구 추옵'!N7</f>
-        <v>55</v>
-      </c>
-      <c r="N6">
-        <f>'방어구 추옵'!O7</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f>'방어구 추옵'!B8</f>
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <f>'방어구 추옵'!C8</f>
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <f>'방어구 추옵'!D8</f>
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <f>'방어구 추옵'!E8</f>
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <f>'방어구 추옵'!F8</f>
-        <v>36</v>
-      </c>
-      <c r="F7">
-        <f>'방어구 추옵'!G8</f>
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <f>'방어구 추옵'!H8</f>
-        <v>42</v>
-      </c>
-      <c r="H7">
-        <f>'방어구 추옵'!I8</f>
-        <v>24</v>
-      </c>
-      <c r="I7">
-        <f>'방어구 추옵'!J8</f>
-        <v>48</v>
-      </c>
-      <c r="J7">
-        <f>'방어구 추옵'!K8</f>
-        <v>24</v>
-      </c>
-      <c r="K7">
-        <f>'방어구 추옵'!L8</f>
-        <v>54</v>
-      </c>
-      <c r="L7">
-        <f>'방어구 추옵'!M8</f>
-        <v>30</v>
-      </c>
-      <c r="M7">
-        <f>'방어구 추옵'!N8</f>
-        <v>66</v>
-      </c>
-      <c r="N7">
-        <f>'방어구 추옵'!O8</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f>'방어구 추옵'!B9</f>
-        <v>28</v>
-      </c>
-      <c r="B8">
-        <f>'방어구 추옵'!C9</f>
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <f>'방어구 추옵'!D9</f>
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <f>'방어구 추옵'!E9</f>
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <f>'방어구 추옵'!F9</f>
-        <v>42</v>
-      </c>
-      <c r="F8">
-        <f>'방어구 추옵'!G9</f>
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <f>'방어구 추옵'!H9</f>
-        <v>49</v>
-      </c>
-      <c r="H8">
-        <f>'방어구 추옵'!I9</f>
-        <v>28</v>
-      </c>
-      <c r="I8">
-        <f>'방어구 추옵'!J9</f>
-        <v>56</v>
-      </c>
-      <c r="J8">
-        <f>'방어구 추옵'!K9</f>
-        <v>28</v>
-      </c>
-      <c r="K8">
-        <f>'방어구 추옵'!L9</f>
-        <v>63</v>
-      </c>
-      <c r="L8">
-        <f>'방어구 추옵'!M9</f>
-        <v>35</v>
-      </c>
-      <c r="M8">
-        <f>'방어구 추옵'!N9</f>
-        <v>77</v>
-      </c>
-      <c r="N8">
-        <f>'방어구 추옵'!O9</f>
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2270,7 +1957,7 @@
       </c>
       <c r="E1">
         <f>'강환불 등급'!E2</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
